--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPM\Desktop\ONLY SAVE FILES HERE\VS Code\merge_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FINAL-BEM\Excel-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E54A40-A4A6-4DCF-94ED-E141F818CF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>BANK</t>
   </si>
@@ -44,22 +45,25 @@
     <t>ADDRESS</t>
   </si>
   <si>
+    <t>MUNICIPALITY</t>
+  </si>
+  <si>
+    <t>DL TYPE</t>
+  </si>
+  <si>
+    <t>REQUESTED BY</t>
+  </si>
+  <si>
+    <t>DATE REQUESTED</t>
+  </si>
+  <si>
+    <t>REQUEST REMARKS</t>
+  </si>
+  <si>
     <t>AREA/PROVINCE</t>
   </si>
   <si>
-    <t>MUNICIPALITY</t>
-  </si>
-  <si>
-    <t>DL TYPE</t>
-  </si>
-  <si>
     <t>OB/PRINCIPAL</t>
-  </si>
-  <si>
-    <t>REQUESTED BY</t>
-  </si>
-  <si>
-    <t>DATE REQUESTED</t>
   </si>
   <si>
     <t>REQUEST NUMBER</t>
@@ -71,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,32 +445,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,35 +493,32 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FINAL-BEM\Excel-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E54A40-A4A6-4DCF-94ED-E141F818CF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ACD21C-986B-41B1-AD18-356E0FBBB975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>BANK</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>REQUEST TYPE</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
   </si>
 </sst>
 </file>
@@ -446,77 +449,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FINAL-BEM\Excel-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ACD21C-986B-41B1-AD18-356E0FBBB975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE265969-ADCC-4FE7-BFD0-80D506749447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>REQUEST TYPE</t>
   </si>
   <si>
-    <t>Reference No.</t>
+    <t>REFERENCE NO.</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FINAL-BEM\Excel-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPM\Desktop\ONLY SAVE FILE HERE\SIT-OJT\Excel-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE265969-ADCC-4FE7-BFD0-80D506749447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,58 +26,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
+    <t>CH CODE</t>
+  </si>
+  <si>
+    <t>CH NAME</t>
+  </si>
+  <si>
+    <t>MUNICIPALITY</t>
+  </si>
+  <si>
+    <t>DL TYPE</t>
+  </si>
+  <si>
+    <t>REQUESTED BY</t>
+  </si>
+  <si>
+    <t>DATE REQUESTED</t>
+  </si>
+  <si>
+    <t>REQUEST REMARKS</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>BRGY</t>
+  </si>
+  <si>
+    <t>FINAL AREA</t>
+  </si>
+  <si>
+    <t>REFERENCE CODE</t>
+  </si>
+  <si>
+    <t>AUTOFIELD DATE</t>
+  </si>
+  <si>
     <t>BANK</t>
   </si>
   <si>
     <t>PLACEMENT</t>
   </si>
   <si>
-    <t>CH CODE</t>
-  </si>
-  <si>
-    <t>CH NAME</t>
-  </si>
-  <si>
     <t>ADD TYPE</t>
   </si>
   <si>
     <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>MUNICIPALITY</t>
-  </si>
-  <si>
-    <t>DL TYPE</t>
-  </si>
-  <si>
-    <t>REQUESTED BY</t>
-  </si>
-  <si>
-    <t>DATE REQUESTED</t>
-  </si>
-  <si>
-    <t>REQUEST REMARKS</t>
-  </si>
-  <si>
-    <t>AREA/PROVINCE</t>
-  </si>
-  <si>
-    <t>OB/PRINCIPAL</t>
-  </si>
-  <si>
-    <t>REQUEST NUMBER</t>
-  </si>
-  <si>
-    <t>REQUEST TYPE</t>
-  </si>
-  <si>
-    <t>REFERENCE NO.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +94,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,12 +104,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,12 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -448,82 +438,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FINAL-BEM\Excel-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE265969-ADCC-4FE7-BFD0-80D506749447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6B3458-6DC1-48A7-8353-9298FD57A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>BANK</t>
   </si>
@@ -60,19 +60,22 @@
     <t>REQUEST REMARKS</t>
   </si>
   <si>
-    <t>AREA/PROVINCE</t>
-  </si>
-  <si>
-    <t>OB/PRINCIPAL</t>
-  </si>
-  <si>
-    <t>REQUEST NUMBER</t>
-  </si>
-  <si>
-    <t>REQUEST TYPE</t>
-  </si>
-  <si>
-    <t>REFERENCE NO.</t>
+    <t>PROBABILITY</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>BRGY</t>
+  </si>
+  <si>
+    <t>FINAL AREA</t>
+  </si>
+  <si>
+    <t>REFERENCE CODE</t>
+  </si>
+  <si>
+    <t>AUTOFIELD DATE</t>
   </si>
 </sst>
 </file>
@@ -95,7 +98,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,12 +108,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,12 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -449,80 +443,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
